--- a/Test-Suites/Тест-Сьют - Тестирование транзакций на счете клиента.xlsx
+++ b/Test-Suites/Тест-Сьют - Тестирование транзакций на счете клиента.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Предусловие Тест-Сьюта:</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ввести значение 100 и нажать "Deposit" под полем ввода</t>
   </si>
   <si>
-    <t>появилось сообщение "Deposit Successful", в поле "Balance" отображается сумма 100</t>
-  </si>
-  <si>
     <t>Нажать на "Withdrawl"</t>
   </si>
   <si>
@@ -66,15 +63,9 @@
     <t>Ввести значение 50 и нажать "Withdraw" под полем ввода</t>
   </si>
   <si>
-    <t>появилось сообщение "Transaction successful", в поле "Balance" отображается сумма 50</t>
-  </si>
-  <si>
     <t>Нажать на "Transactions"</t>
   </si>
   <si>
-    <t>в списке транзакций отображаются две транзакции</t>
-  </si>
-  <si>
     <t>Постусловие:</t>
   </si>
   <si>
@@ -87,33 +78,15 @@
     <t>Сменить счет</t>
   </si>
   <si>
-    <t>в поле "Balance" отображается сумма 0</t>
-  </si>
-  <si>
-    <t>появилось сообщение "Deposit Successful", в поле "Balance" отображается сумма 50</t>
-  </si>
-  <si>
     <t>Сменить счет обратно</t>
   </si>
   <si>
-    <t>в поле "Balance" отображается сумма 100</t>
-  </si>
-  <si>
-    <t>Очистить транзакции на обоих счетах, открыта страница управления счетами клиента</t>
-  </si>
-  <si>
-    <t>Очистить транзакции на счете, открыта страница управления счетами клиента</t>
-  </si>
-  <si>
     <t>Кейс №3</t>
   </si>
   <si>
     <t>Ввести значение 0 и нажать "Deposit" под полем ввода</t>
   </si>
   <si>
-    <t>в поле "Balance" отображается сумма не изменилась</t>
-  </si>
-  <si>
     <t>Ввести значение -1 и нажать "Deposit" под полем ввода</t>
   </si>
   <si>
@@ -132,33 +105,15 @@
     <t>Кейс №5</t>
   </si>
   <si>
-    <t>поле осталось пустым</t>
-  </si>
-  <si>
-    <t>Ввести несколько буквенных символов и спец символов</t>
-  </si>
-  <si>
     <t>Кейс №6</t>
   </si>
   <si>
-    <t>Справа в поле внесения депозита нажать на стрелочку вверх</t>
-  </si>
-  <si>
     <t>в поле введена сумма равная 1</t>
   </si>
   <si>
-    <t>Справа в поле внесения депозита нажать на стрелочку вниз</t>
-  </si>
-  <si>
     <t>в поле введена сумма равная 0</t>
   </si>
   <si>
-    <t>Справа в поле снятия депозита нажать на стрелочку вверх</t>
-  </si>
-  <si>
-    <t>Справа в поле снятия депозита нажать на стрелочку вниз</t>
-  </si>
-  <si>
     <t>Кейс №7</t>
   </si>
   <si>
@@ -196,6 +151,51 @@
   </si>
   <si>
     <t>Открыта страница управления счетами клиента</t>
+  </si>
+  <si>
+    <t>появилось сообщение "Deposit Successful", в поле "Balance" отображается сумма увеличенная на 100</t>
+  </si>
+  <si>
+    <t>появилось сообщение "Transaction successful", в поле "Balance" отображается сумма уменьшенная на 50</t>
+  </si>
+  <si>
+    <t>зафиксировать суммы баланса на обоих счетах</t>
+  </si>
+  <si>
+    <t>в поле "Balance" отображается сумма из предусловия</t>
+  </si>
+  <si>
+    <t>появилось сообщение "Deposit Successful", в поле "Balance" отображается сумма увеличенная на 50</t>
+  </si>
+  <si>
+    <t>в поле "Balance" отображается сумма из шага 2</t>
+  </si>
+  <si>
+    <t>в поле "Balance" отображаемая сумма не изменилась</t>
+  </si>
+  <si>
+    <t>Ввести несколько буквенных символов и спец символов и нажать "Deposit" под полем ввода</t>
+  </si>
+  <si>
+    <t>Ввести несколько буквенных символов и спец символов и нажать "Withdraw" под полем ввода</t>
+  </si>
+  <si>
+    <t>Нажать на "Deposit" и кликнуть левой кнопкой мыши в поле ввода</t>
+  </si>
+  <si>
+    <t>появилось поле внесения депозита, поле автивно</t>
+  </si>
+  <si>
+    <t>появилось поле снятия с депозита, поле автивно</t>
+  </si>
+  <si>
+    <t>Нажать на "Withdrawl" и кликнуть левой кнопкой мыши в поле ввода</t>
+  </si>
+  <si>
+    <t>Нажать на стрелочку вверх на клавиатуре</t>
+  </si>
+  <si>
+    <t>Нажать на стрелочку вниз на клавиатуре</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -528,11 +528,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -542,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -583,21 +618,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,16 +625,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -909,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E86"/>
+  <dimension ref="B1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,11 +976,11 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -952,16 +1000,16 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -985,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -994,680 +1042,626 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:5" ht="30.75" thickBot="1">
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:5" ht="30">
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5" ht="30">
+      <c r="B23" s="9">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:5" ht="30">
-      <c r="B13" s="9">
+      <c r="D23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B24" s="15">
+        <v>6</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B29" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B14" s="15">
+      <c r="E29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="21" t="s">
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="2:5" ht="30">
+      <c r="B31" s="9">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" ht="30.75" thickBot="1">
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B37" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:5" ht="30">
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="2:5" ht="30.75" thickBot="1">
+      <c r="B40" s="15">
+        <v>3</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="2:5" ht="30">
-      <c r="B22" s="9">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="9">
-        <v>4</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" ht="30">
-      <c r="B25" s="9">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B26" s="15">
-        <v>6</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="30" spans="2:5">
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B32" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="12">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5" ht="30">
-      <c r="B34" s="9">
-        <v>2</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="2:5" ht="30.75" thickBot="1">
-      <c r="B35" s="15">
-        <v>3</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="2:5" ht="30">
-      <c r="B42" s="9">
-        <v>2</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="2:5" ht="30.75" thickBot="1">
-      <c r="B43" s="15">
-        <v>3</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="17"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1">
       <c r="B44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="47" spans="2:5">
-      <c r="B47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B49" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C45" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E45" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="12">
-        <v>1</v>
-      </c>
-      <c r="C50" s="13" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="51" spans="2:5" ht="30">
-      <c r="B51" s="9">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="2:5" ht="30">
+      <c r="B47" s="9">
         <v>2</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
+      <c r="C47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="9">
+        <v>3</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="2:5" ht="30.75" thickBot="1">
+      <c r="B49" s="15">
+        <v>4</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="52" spans="2:5">
-      <c r="B52" s="9">
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B54" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="2:5" ht="30.75" thickBot="1">
-      <c r="B53" s="15">
+      <c r="D54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="55" spans="2:5" ht="15.75" thickBot="1"/>
+      <c r="E54" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30">
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="14"/>
+    </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B57" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B58" s="23" t="s">
+      <c r="B56" s="9">
         <v>2</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="9">
         <v>3</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="C57" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="2:5" ht="30">
+      <c r="B58" s="9">
         <v>4</v>
       </c>
-      <c r="E58" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="C58" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="12">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="2:5" ht="30">
-      <c r="B60" s="9">
+    <row r="60" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B60" s="15">
+        <v>6</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="63" spans="2:5">
+      <c r="B63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="2:5" ht="33" customHeight="1" thickBot="1">
+      <c r="B64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B65" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="30">
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B67" s="15">
+        <v>2</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="70" spans="2:5">
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B74" s="15">
+        <v>2</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="77" spans="2:5">
+      <c r="B77" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B78" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B79" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B80" s="32">
+        <v>1</v>
+      </c>
+      <c r="C80" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="2:5" ht="30">
-      <c r="B61" s="9">
-        <v>3</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="D80" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="E80" s="34"/>
+    </row>
+    <row r="81" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B81" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="9">
-        <v>4</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="2:5" ht="30">
-      <c r="B63" s="12">
-        <v>5</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" spans="2:5" ht="30.75" thickBot="1">
-      <c r="B64" s="15">
-        <v>6</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="67" spans="2:5">
-      <c r="B67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="2:5" ht="33" customHeight="1" thickBot="1">
-      <c r="B68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B69" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="30">
-      <c r="B70" s="7">
-        <v>1</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B71" s="15">
-        <v>2</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-    </row>
-    <row r="74" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="75" spans="2:5">
-      <c r="B75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B76" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B77" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="7">
-        <v>1</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B79" s="15">
-        <v>2</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="82" spans="2:5">
-      <c r="B82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B83" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B84" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B85" s="7">
-        <v>1</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B86" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C44:D44"/>
+  <mergeCells count="11">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Test-Suites/Тест-Сьют - Тестирование транзакций на счете клиента.xlsx
+++ b/Test-Suites/Тест-Сьют - Тестирование транзакций на счете клиента.xlsx
@@ -120,9 +120,6 @@
     <t>Совершено 3 операции внесения и 3 операции снятия с временным интервалом между каждой операцией минимум в 1 секунду</t>
   </si>
   <si>
-    <t>в списке транзакций отображаются шесть транзакций, по умолчанию отсортированы по времени по возрастанию</t>
-  </si>
-  <si>
     <t>Нажать на наименование столбца "Date-Time"</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Нажать на стрелочку вниз на клавиатуре</t>
+  </si>
+  <si>
+    <t>в списке, транзакции по умолчанию отсортированы по времени по возрастанию</t>
   </si>
 </sst>
 </file>
@@ -625,34 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -663,6 +636,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -976,11 +976,11 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -995,8 +995,8 @@
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1">
@@ -1033,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="11"/>
     </row>
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="17"/>
     </row>
@@ -1074,10 +1074,10 @@
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="22"/>
+      <c r="C17" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
@@ -1114,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="11"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="11"/>
     </row>
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="11"/>
     </row>
@@ -1162,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="17"/>
     </row>
@@ -1179,8 +1179,8 @@
       <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1">
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="11"/>
     </row>
@@ -1229,7 +1229,7 @@
         <v>23</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="17"/>
     </row>
@@ -1246,10 +1246,10 @@
       <c r="B36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="22"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickBot="1">
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="11"/>
     </row>
@@ -1298,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="17"/>
     </row>
@@ -1315,8 +1315,8 @@
       <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1">
@@ -1350,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="11"/>
     </row>
@@ -1374,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="17"/>
     </row>
@@ -1394,8 +1394,8 @@
       <c r="B53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" thickBot="1">
@@ -1417,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E55" s="14"/>
     </row>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>30</v>
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>31</v>
@@ -1453,10 +1453,10 @@
         <v>4</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="11"/>
     </row>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>30</v>
@@ -1477,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="16" t="s">
         <v>31</v>
@@ -1497,10 +1497,10 @@
       <c r="B64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" thickBot="1">
@@ -1525,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -1534,17 +1534,17 @@
         <v>2</v>
       </c>
       <c r="C67" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="E67" s="17"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="70" spans="2:5">
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1554,8 +1554,8 @@
       <c r="B71" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" thickBot="1">
@@ -1577,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="E73" s="4"/>
     </row>
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>17</v>
@@ -1599,7 +1599,7 @@
     <row r="76" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="77" spans="2:5">
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -1609,8 +1609,8 @@
       <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" ht="15.75" thickBot="1">
@@ -1628,26 +1628,26 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B80" s="32">
-        <v>1</v>
-      </c>
-      <c r="C80" s="33" t="s">
+      <c r="B80" s="23">
+        <v>1</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="2:5" ht="15.75" thickBot="1">
+      <c r="B81" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="34"/>
-    </row>
-    <row r="81" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B81" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D81" s="30"/>
-      <c r="E81" s="31"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
